--- a/biology/Zoologie/Harpalus_latus/Harpalus_latus.xlsx
+++ b/biology/Zoologie/Harpalus_latus/Harpalus_latus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harpalus latus est une espèce de Coléoptères de la famille des Carabidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Harpalus latus mesure 10,2 millimètres de long[1]. Sa tête mesure 1,5 millimètre de long et de large. Il a des rainures cervicales qui s'étendent vers l'avant et sont également longues. L'espèce est similaire à Harpalus rufipes, mais diffère par le nombre de dents crénelées dans la partie médiane. Le deuxième segment antennaire a 2 setæ tandis que le premier n'en a pas. Son tergum a 4 et 6 soies qui apparaissent en rangées transversales. Il a 2 dents devant le rétinaculum qui sont dirigées vers l'intérieur. Les antennes et le pédipalpe sont rougeâtres et ferrugineux[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Harpalus latus mesure 10,2 millimètres de long. Sa tête mesure 1,5 millimètre de long et de large. Il a des rainures cervicales qui s'étendent vers l'avant et sont également longues. L'espèce est similaire à Harpalus rufipes, mais diffère par le nombre de dents crénelées dans la partie médiane. Le deuxième segment antennaire a 2 setæ tandis que le premier n'en a pas. Son tergum a 4 et 6 soies qui apparaissent en rangées transversales. Il a 2 dents devant le rétinaculum qui sont dirigées vers l'intérieur. Les antennes et le pédipalpe sont rougeâtres et ferrugineux.
 </t>
         </is>
       </c>
@@ -542,12 +556,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Harpalus latus (Linnaeus, 1758)[3].
-L'espèce a été initialement classée dans le genre Carabus sous le protonyme Carabus latus Linnaeus, 1758[3]. Elle fait partie de la famille des Carabidae[4].
-Synonymie
-Harpalus latus a pour synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Harpalus latus (Linnaeus, 1758).
+L'espèce a été initialement classée dans le genre Carabus sous le protonyme Carabus latus Linnaeus, 1758. Elle fait partie de la famille des Carabidae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Harpalus_latus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_latus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Harpalus latus a pour synonymes :
 Carabus fulvipes Fabricius, 1792
 Carabus latus Linnaeus, 1758
 Carabus limbatus Duftschmid, 1812
@@ -564,37 +615,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Harpalus_latus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Harpalus_latus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve cette espèce en Islande, Irlande, Grande-Bretagne, Danemark, Norvège, Suède, Finlande, France, Belgique, Pays-Bas, Allemagne, Suisse, Autriche, République Tchèque, Slovaquie, Hongrie, Pologne, Estonie, Lettonie, Lituanie, Biélorussie, Ukraine , Espagne, Italie, Slovénie, Croatie, Bosnie-Herzégovine, Yougoslavie, Macédoine du Nord, Albanie, Bulgarie, Roumanie, Moldavie, Turquie, Géorgie, Arménie, Azerbaïdjan, Kazakhstan, Corée du Nord, Japon, Russie et Mongolie[4].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -616,12 +636,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve cette espèce en Islande, Irlande, Grande-Bretagne, Danemark, Norvège, Suède, Finlande, France, Belgique, Pays-Bas, Allemagne, Suisse, Autriche, République Tchèque, Slovaquie, Hongrie, Pologne, Estonie, Lettonie, Lituanie, Biélorussie, Ukraine , Espagne, Italie, Slovénie, Croatie, Bosnie-Herzégovine, Yougoslavie, Macédoine du Nord, Albanie, Bulgarie, Roumanie, Moldavie, Turquie, Géorgie, Arménie, Azerbaïdjan, Kazakhstan, Corée du Nord, Japon, Russie et Mongolie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Harpalus_latus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_latus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses habitats naturels sont les forêts, les landes, les sablières et les gravières[2],[5],[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses habitats naturels sont les forêts, les landes, les sablières et les gravières.
 </t>
         </is>
       </c>
